--- a/Datasets/cdcp_ACL17/pickles/data.xlsx
+++ b/Datasets/cdcp_ACL17/pickles/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ugo\Dropbox\Uni\POST_TESI\Argumentation Mining\Deep Networks\StructurePrediction18\Datasets\cdcp_ACL17\pickles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9DBA57-E818-42AF-A3A5-A659E793122A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98C7B7-CC4C-47F0-B237-8D2A4124B3B6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6650" xr2:uid="{C11E77C4-9178-41F3-B905-22F6CD328841}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6650" activeTab="1" xr2:uid="{C11E77C4-9178-41F3-B905-22F6CD328841}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataframe" sheetId="1" r:id="rId1"/>
+    <sheet name="Vocabulary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Dataset</t>
   </si>
@@ -76,6 +77,99 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Orphans</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Voc_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>'s</t>
+  </si>
+  <si>
+    <t>'ve</t>
+  </si>
+  <si>
+    <t>'ll</t>
+  </si>
+  <si>
+    <t>'re</t>
+  </si>
+  <si>
+    <t>'d</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -222,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -251,11 +345,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -274,22 +389,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFA3A3A3"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFA3A3A3"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -524,13 +623,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFA3A3A3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFA3A3A3"/>
         </left>
@@ -543,6 +635,29 @@
         <bottom style="medium">
           <color rgb="FFA3A3A3"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFA3A3A3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFA3A3A3"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFA3A3A3"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -559,22 +674,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31A1402B-EDE0-4970-958E-86D71DB56C9D}" name="Tabella1" displayName="Tabella1" ref="A1:M5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31A1402B-EDE0-4970-958E-86D71DB56C9D}" name="Tabella1" displayName="Tabella1" ref="A1:M5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:M5" xr:uid="{B8DF26DF-8A5C-4465-9A46-D108F1D39550}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{CA369CDE-34B9-41E7-8726-282A7E63875C}" name="Dataset" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{ACA6AC71-0980-4A12-A40E-D3CCDFBD024F}" name="Documents" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{BCC1E130-B338-4E03-A1F3-289CD41ACC8A}" name="Propositions" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BD29F3E3-5890-430F-930F-2E9D2B5E9D62}" name="Possible Couples" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A3811466-5C2E-49C9-8F8B-74332BC1D930}" name="Link a to b" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{75337FAD-F22A-4394-885E-44EFF9BF31DC}" name="Reasons" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{3CA0BEAF-7425-41CD-9FBF-96DB28280175}" name="Evidences" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{1DA2F119-D6C6-411D-AB6D-A6006F3B271D}" name="Value" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{87E2A246-9D0E-4096-8017-57E4B815BA4B}" name="Testimony" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{93398AE0-5631-44F1-84F8-73D699C81529}" name="Policy" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{9D63B070-9212-448F-B925-89FAE1FA45D1}" name="Fact" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{8CEE893D-6383-42B9-A590-7D4FE48CEEDC}" name="Reference" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{68F65BD8-C816-4B35-83B2-A89E7DDF32F9}" name="URL" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CA369CDE-34B9-41E7-8726-282A7E63875C}" name="Dataset" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{ACA6AC71-0980-4A12-A40E-D3CCDFBD024F}" name="Documents" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BCC1E130-B338-4E03-A1F3-289CD41ACC8A}" name="Propositions" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{BD29F3E3-5890-430F-930F-2E9D2B5E9D62}" name="Possible Couples" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A3811466-5C2E-49C9-8F8B-74332BC1D930}" name="Link a to b" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{75337FAD-F22A-4394-885E-44EFF9BF31DC}" name="Reasons" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{3CA0BEAF-7425-41CD-9FBF-96DB28280175}" name="Evidences" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{1DA2F119-D6C6-411D-AB6D-A6006F3B271D}" name="Value" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{87E2A246-9D0E-4096-8017-57E4B815BA4B}" name="Testimony" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{93398AE0-5631-44F1-84F8-73D699C81529}" name="Policy" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{9D63B070-9212-448F-B925-89FAE1FA45D1}" name="Fact" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{8CEE893D-6383-42B9-A590-7D4FE48CEEDC}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{68F65BD8-C816-4B35-83B2-A89E7DDF32F9}" name="URL" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96BEDFFA-789B-4160-993A-A8068E019CE6}" name="Tabella2" displayName="Tabella2" ref="A1:C29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:C29" xr:uid="{2CD19B54-3AA2-4DC6-BF3B-746078B34B34}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9F50491A-D3F1-46FD-8C90-AACEDE3DC76B}" name="Sep" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C90E44D4-B946-430C-A1BE-FFDD2123C708}" name="Voc_size" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{396B7765-571B-45A2-AA9B-61DF74B229DA}" name="Orphans" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A59FC2-0686-42B4-8018-5CB477DB8AA3}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
@@ -1108,4 +1235,345 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DB8E5-EE00-4C0C-8A07-751ED122BDF9}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10">
+        <v>6539</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>6555</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="10">
+        <v>6588</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
+        <v>6590</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10">
+        <v>6593</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
+        <v>6599</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10">
+        <v>6602</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10">
+        <v>6608</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10">
+        <v>6613</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="10">
+        <v>6622</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10">
+        <v>6631</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10">
+        <v>6633</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6650</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="10">
+        <v>6710</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="10">
+        <v>6722</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="10">
+        <v>6748</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="10">
+        <v>6750</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="10">
+        <v>6751</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="10">
+        <v>6753</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="10">
+        <v>6961</v>
+      </c>
+      <c r="C21" s="10">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="10">
+        <v>7170</v>
+      </c>
+      <c r="C22" s="10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>7180</v>
+      </c>
+      <c r="C23" s="10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="10">
+        <v>7181</v>
+      </c>
+      <c r="C24" s="10">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="10">
+        <v>7182</v>
+      </c>
+      <c r="C25" s="10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10">
+        <v>7183</v>
+      </c>
+      <c r="C26" s="10">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="10">
+        <v>7186</v>
+      </c>
+      <c r="C27" s="10">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="10">
+        <v>7255</v>
+      </c>
+      <c r="C28" s="10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="10">
+        <v>7273</v>
+      </c>
+      <c r="C29" s="10">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>